--- a/output/scs2016_robi.xlsx
+++ b/output/scs2016_robi.xlsx
@@ -1255,7 +1255,7 @@
     <t xml:space="preserve">Haben Sie seit Januar 2011 als Haupt- oder Mitantragsteller/Mitantragstellerin einen oder mehrere Drittmittelanträge bei einem öffentlichen oder privaten Förderer gestellt? Bitte berücksichtigen Sie nur Anträge mit einem jeweiligen Volumen von über 25.000 €.</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you submitted one or more third-party funding applications to public or private funding sources as main or joint applicant since January 2011? Please only mention applications for over â¬ 25,000 each.</t>
+    <t xml:space="preserve">Have you submitted one or more third-party funding applications to public or private funding sources as main or joint applicant since January 2011? Please only mention applications for over 25,000 each.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zofar:questionSingleChoice uid="sc" xmlns:zofar="http://www.his.de/zofar/xml/questionnaire" xmlns:display="http://www.dzhw.eu/zofar/xml/display" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;
@@ -1276,7 +1276,7 @@
     <t xml:space="preserve">Haben Sie seit Januar 2011 als Haupt- oder Mitantragsteller/Mitantragstellerin einen oder mehrere Drittmittelanträge bei einem öffentlichen oder privaten Förderer gestellt? Bitte berücksichtigen Sie nur Anträge mit einem jeweiligen Volumen von über 25.000 €.,Ja,Nein. Ich habe seit 2011 keine Drittmittelanträge über 25.000 € gestellt.</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you submitted one or more third-party funding applications to public or private funding sources as main or joint applicant since January 2011? Please only mention applications for over â¬ 25,000 each.,Yes,No, I have not submitted any applications for third-party funding for over € 25,000 since 2011.</t>
+    <t xml:space="preserve">Have you submitted one or more third-party funding applications to public or private funding sources as main or joint applicant since January 2011? Please only mention applications for over 25,000 each.,Yes,No, I have not submitted any applications for third-party funding for over € 25,000 since 2011.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zofar:multipleChoice uid="mc" xmlns:zofar="http://www.his.de/zofar/xml/questionnaire" xmlns:display="http://www.dzhw.eu/zofar/xml/display" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">Bei welchen der angegebenen Drittmittelgeber haben Sie seit Januar 2011 Anträge mit einem jeweiligen Gesamtvolumen von jeweils mehr als 25.000€ gestellt?</t>
   </si>
   <si>
-    <t xml:space="preserve">To which of the third-party funding sources listed below have you submitted an application since January 2011 with a total volume in each case of over â¬ 25,000?</t>
+    <t xml:space="preserve">To which of the third-party funding sources listed below have you submitted an application since January 2011 with a total volume in each case of over 25,000?</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zofar:matrixQuestionOpen uid="msq1" xmlns:zofar="http://www.his.de/zofar/xml/questionnaire" xmlns:display="http://www.dzhw.eu/zofar/xml/display" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;
@@ -1479,7 +1479,7 @@
     <t xml:space="preserve">Bei welchen der angegebenen Drittmittelgeber haben Sie seit Januar 2011 Anträge mit einem jeweiligen Gesamtvolumen von jeweils mehr als 25.000€ gestellt?,Bitte geben Sie die Anzahl der gestellten (inklusive der noch nicht entschiedenen) Anträge an!,Anzahl gestellter Anträge über 25.000 €,DFG,DFG Einzelanträge,DFG SFB (inkl. Transregio, Transferbereichen Forschungs-kollegs),DFG Nachwuchsförderung (z.B. Emmy Noether-, Heisenbergprogr.),Sonstige DFG,Exzellenzinitiative,Exzellenzcluster,Graduiertenschulen,Zukunftskonzepte,BMBF,BMBF Einzelprojekt,BMBF Verbundprojekt/Vernetzungsprojekt,BMBF Infrastrukturförderung,BMBF Sonstige,Andere Bundes-/Landesministerien,Europäische Union,Europ. Kommission (EU) (ohne ERC),ERC Starting Grants,ERC Consolidator Grants,ERC Advanced Grants,Nationale gemeinnützige Stiftungen (AvH, VW Stiftung, Fritz Thyssen Stiftung usw.),Stiftungen Nachwuchsprogramm,Stiftungen Sonstige,Weitere Förderer,Industrie/Wirtschaft,Andere ausländische Förderorganisationen,Sonstige</t>
   </si>
   <si>
-    <t xml:space="preserve">To which of the third-party funding sources listed below have you submitted an application since January 2011 with a total volume in each case of over â¬ 25,000?,Please give the number of applications submitted (including those where no decision has been made yet).,Number of applications submitted over € 25,000,German Research Foundation DFG,DFG individual applications,DFG SFB (incl. Transregio, Transferbereiche, Forschungskollegs),DFG support for young scientists (e.g. Emmy Noether-, Heisenbergprogr.),Other DFG,Excellence Initiative,Clusters of Excellence,Graduate Schools,Institutional Strategies,Federal Ministry of Education and Research BMBF,BMBF individual project,BMBF joint research project/network project,BMBF infrastructure funding,BMBF other,Other federal or federal state ministries,European Union,European Commission (EU) (excluding ERC),ERC Starting Grants,ERC Consolidator Grants,ERC Advanced Grants,National non-profit foundations (AvH, VW Stiftung, Fritz Thyssen Stiftung etc.),Foundations for young academics programmes,Other foundations,Other funding sources,Industry/business,Other foreign funding organisations,Other</t>
+    <t xml:space="preserve">To which of the third-party funding sources listed below have you submitted an application since January 2011 with a total volume in each case of over 25,000?,Please give the number of applications submitted (including those where no decision has been made yet).,Number of applications submitted over € 25,000,German Research Foundation DFG,DFG individual applications,DFG SFB (incl. Transregio, Transferbereiche, Forschungskollegs),DFG support for young scientists (e.g. Emmy Noether-, Heisenbergprogr.),Other DFG,Excellence Initiative,Clusters of Excellence,Graduate Schools,Institutional Strategies,Federal Ministry of Education and Research BMBF,BMBF individual project,BMBF joint research project/network project,BMBF infrastructure funding,BMBF other,Other federal or federal state ministries,European Union,European Commission (EU) (excluding ERC),ERC Starting Grants,ERC Consolidator Grants,ERC Advanced Grants,National non-profit foundations (AvH, VW Stiftung, Fritz Thyssen Stiftung etc.),Foundations for young academics programmes,Other foundations,Other funding sources,Industry/business,Other foreign funding organisations,Other</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zofar:multipleChoice uid="mc" xmlns:zofar="http://www.his.de/zofar/xml/questionnaire" xmlns:display="http://www.dzhw.eu/zofar/xml/display" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;
